--- a/Code/Results/Cases/Case_0_135/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_135/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9204505550534053</v>
+        <v>1.04187148740654</v>
       </c>
       <c r="D2">
-        <v>0.9335661079182768</v>
+        <v>1.051201815403074</v>
       </c>
       <c r="E2">
-        <v>0.9354497081613482</v>
+        <v>1.039821650265975</v>
       </c>
       <c r="F2">
-        <v>0.9337380927167467</v>
+        <v>1.058114308825262</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>0.9453020453964286</v>
+        <v>1.046950360256459</v>
       </c>
       <c r="K2">
-        <v>0.9460357134635354</v>
+        <v>1.053953972737855</v>
       </c>
       <c r="L2">
-        <v>0.9478881267361426</v>
+        <v>1.042605748426806</v>
       </c>
       <c r="M2">
-        <v>0.9462048439707228</v>
+        <v>1.06084742817026</v>
       </c>
       <c r="N2">
-        <v>0.9810989348345069</v>
+        <v>1.018867705991366</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9369196253462263</v>
+        <v>1.044480530114546</v>
       </c>
       <c r="D3">
-        <v>0.9495188695899134</v>
+        <v>1.053794344556942</v>
       </c>
       <c r="E3">
-        <v>0.9496103810823624</v>
+        <v>1.042104672355415</v>
       </c>
       <c r="F3">
-        <v>0.9505793546024457</v>
+        <v>1.060870762483992</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208684</v>
       </c>
       <c r="J3">
-        <v>0.9592912387672017</v>
+        <v>1.049197364533617</v>
       </c>
       <c r="K3">
-        <v>0.9608411855176037</v>
+        <v>1.056354528623648</v>
       </c>
       <c r="L3">
-        <v>0.9609313631245071</v>
+        <v>1.044695193457337</v>
       </c>
       <c r="M3">
-        <v>0.9618862327186369</v>
+        <v>1.063412932042585</v>
       </c>
       <c r="N3">
-        <v>0.9863620480397725</v>
+        <v>1.019675759831763</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9468816032167355</v>
+        <v>1.046159367466952</v>
       </c>
       <c r="D4">
-        <v>0.9591797143153291</v>
+        <v>1.055462855549148</v>
       </c>
       <c r="E4">
-        <v>0.9581875554457576</v>
+        <v>1.043573327982253</v>
       </c>
       <c r="F4">
-        <v>0.960780310398942</v>
+        <v>1.062645297380346</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>0.9677491119372323</v>
+        <v>1.050642091253776</v>
       </c>
       <c r="K4">
-        <v>0.9697971189084266</v>
+        <v>1.05789857700645</v>
       </c>
       <c r="L4">
-        <v>0.9688182654966555</v>
+        <v>1.046038290180849</v>
       </c>
       <c r="M4">
-        <v>0.9713763227572337</v>
+        <v>1.065063695222776</v>
       </c>
       <c r="N4">
-        <v>0.9895422491058079</v>
+        <v>1.020193834311687</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9509244106731586</v>
+        <v>1.046862965162818</v>
       </c>
       <c r="D5">
-        <v>0.963102688219087</v>
+        <v>1.056162196342181</v>
       </c>
       <c r="E5">
-        <v>0.9616705989748814</v>
+        <v>1.044188741922257</v>
       </c>
       <c r="F5">
-        <v>0.9649231955428315</v>
+        <v>1.063389202993886</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628352</v>
       </c>
       <c r="J5">
-        <v>0.9711802718482953</v>
+        <v>1.051247297617153</v>
       </c>
       <c r="K5">
-        <v>0.9734314413350272</v>
+        <v>1.058545532444821</v>
       </c>
       <c r="L5">
-        <v>0.9720178895995858</v>
+        <v>1.046600844292042</v>
       </c>
       <c r="M5">
-        <v>0.9752284826548826</v>
+        <v>1.065755512594656</v>
       </c>
       <c r="N5">
-        <v>0.9908315755062059</v>
+        <v>1.020410505283552</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9515952304570627</v>
+        <v>1.046980975933702</v>
       </c>
       <c r="D6">
-        <v>0.9637537560491266</v>
+        <v>1.056279497256249</v>
       </c>
       <c r="E6">
-        <v>0.9622486546381592</v>
+        <v>1.044291956351954</v>
       </c>
       <c r="F6">
-        <v>0.9656107976045734</v>
+        <v>1.063513986188949</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>0.9717495211064328</v>
+        <v>1.051348789515656</v>
       </c>
       <c r="K6">
-        <v>0.9740344624544045</v>
+        <v>1.058654033945397</v>
       </c>
       <c r="L6">
-        <v>0.9725487277716112</v>
+        <v>1.046695178856999</v>
       </c>
       <c r="M6">
-        <v>0.975867712703464</v>
+        <v>1.065871546647893</v>
       </c>
       <c r="N6">
-        <v>0.9910454254211867</v>
+        <v>1.020446819728551</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9469361694667792</v>
+        <v>1.0461687774792</v>
       </c>
       <c r="D7">
-        <v>0.9592326540654774</v>
+        <v>1.055472208351387</v>
       </c>
       <c r="E7">
-        <v>0.9582345582840031</v>
+        <v>1.043581558996655</v>
       </c>
       <c r="F7">
-        <v>0.960836215346892</v>
+        <v>1.062655245685326</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.02344298551034</v>
       </c>
       <c r="J7">
-        <v>0.9677954279974401</v>
+        <v>1.050650186453369</v>
       </c>
       <c r="K7">
-        <v>0.9698461729346917</v>
+        <v>1.057907230077869</v>
       </c>
       <c r="L7">
-        <v>0.9688614559221885</v>
+        <v>1.046045815177342</v>
       </c>
       <c r="M7">
-        <v>0.9714283126904711</v>
+        <v>1.065072947741051</v>
       </c>
       <c r="N7">
-        <v>0.9895596569287541</v>
+        <v>1.020196733884585</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.92617446771749</v>
+        <v>1.042755207016752</v>
       </c>
       <c r="D8">
-        <v>0.9391079380478482</v>
+        <v>1.052079878841492</v>
       </c>
       <c r="E8">
-        <v>0.9403684479522169</v>
+        <v>1.040595023663328</v>
       </c>
       <c r="F8">
-        <v>0.9395882069938931</v>
+        <v>1.059047782971711</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.9501647465333085</v>
+        <v>1.047711691033278</v>
       </c>
       <c r="K8">
-        <v>0.9511811898013639</v>
+        <v>1.054767206369114</v>
       </c>
       <c r="L8">
-        <v>0.9524217070341526</v>
+        <v>1.043313762384146</v>
       </c>
       <c r="M8">
-        <v>0.9516538332042273</v>
+        <v>1.061716412354042</v>
       </c>
       <c r="N8">
-        <v>0.9829285757789533</v>
+        <v>1.019141795176683</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.882966437976219</v>
+        <v>1.036665337769893</v>
       </c>
       <c r="D9">
-        <v>0.8973462529589114</v>
+        <v>1.046030263772806</v>
       </c>
       <c r="E9">
-        <v>0.9033265938330453</v>
+        <v>1.035263993507622</v>
       </c>
       <c r="F9">
-        <v>0.895506634322601</v>
+        <v>1.052618565370167</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9134560506897432</v>
+        <v>1.042460483694758</v>
       </c>
       <c r="K9">
-        <v>0.9123577399318638</v>
+        <v>1.049160464999226</v>
       </c>
       <c r="L9">
-        <v>0.9182104792024989</v>
+        <v>1.038428974103899</v>
       </c>
       <c r="M9">
-        <v>0.910557827915658</v>
+        <v>1.055727867516465</v>
       </c>
       <c r="N9">
-        <v>0.9691287061623773</v>
+        <v>1.017245289056235</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8468730671047112</v>
+        <v>1.032551179727448</v>
       </c>
       <c r="D10">
-        <v>0.8625959859517552</v>
+        <v>1.041944948051617</v>
       </c>
       <c r="E10">
-        <v>0.8725697433858348</v>
+        <v>1.031660577821856</v>
       </c>
       <c r="F10">
-        <v>0.8588174885948235</v>
+        <v>1.048279616504079</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.8828240654117832</v>
+        <v>1.038906952928114</v>
       </c>
       <c r="K10">
-        <v>0.8799851687862493</v>
+        <v>1.045369439635253</v>
       </c>
       <c r="L10">
-        <v>0.8896962919276714</v>
+        <v>1.035121752625018</v>
       </c>
       <c r="M10">
-        <v>0.8763083376357188</v>
+        <v>1.051681907630736</v>
       </c>
       <c r="N10">
-        <v>0.9576674155184823</v>
+        <v>1.015954440070691</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8282890783724688</v>
+        <v>1.030755928452849</v>
       </c>
       <c r="D11">
-        <v>0.8447561833071486</v>
+        <v>1.040162685939144</v>
       </c>
       <c r="E11">
-        <v>0.8568138456012864</v>
+        <v>1.03008776563715</v>
       </c>
       <c r="F11">
-        <v>0.8399729975456057</v>
+        <v>1.046387344262862</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.8670789392559715</v>
+        <v>1.037354932637964</v>
       </c>
       <c r="K11">
-        <v>0.8633494552468978</v>
+        <v>1.043714426013898</v>
       </c>
       <c r="L11">
-        <v>0.8750565968457054</v>
+        <v>1.033676926104313</v>
       </c>
       <c r="M11">
-        <v>0.8587091582441784</v>
+        <v>1.049916362575611</v>
       </c>
       <c r="N11">
-        <v>0.9518084374166974</v>
+        <v>1.015388915221136</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.820739966817878</v>
+        <v>1.030086940443625</v>
       </c>
       <c r="D12">
-        <v>0.8375203256774315</v>
+        <v>1.039498599960276</v>
       </c>
       <c r="E12">
-        <v>0.850431043496425</v>
+        <v>1.029501605844354</v>
       </c>
       <c r="F12">
-        <v>0.8323270722770612</v>
+        <v>1.045682363410549</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268118</v>
       </c>
       <c r="J12">
-        <v>0.8606900444454658</v>
+        <v>1.036776372736509</v>
       </c>
       <c r="K12">
-        <v>0.8565995126522401</v>
+        <v>1.043097582477152</v>
       </c>
       <c r="L12">
-        <v>0.8691201108132478</v>
+        <v>1.033138268930366</v>
       </c>
       <c r="M12">
-        <v>0.8515679050968344</v>
+        <v>1.049258437118932</v>
       </c>
       <c r="N12">
-        <v>0.9494386404049777</v>
+        <v>1.015177840786768</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8223934844427649</v>
+        <v>1.030230539311419</v>
       </c>
       <c r="D13">
-        <v>0.839104672506135</v>
+        <v>1.039641143794275</v>
       </c>
       <c r="E13">
-        <v>0.851828196118034</v>
+        <v>1.02962742833976</v>
       </c>
       <c r="F13">
-        <v>0.834001348003796</v>
+        <v>1.045833680862914</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405786</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.8620890523164529</v>
+        <v>1.03690057062913</v>
       </c>
       <c r="K13">
-        <v>0.8580775732838711</v>
+        <v>1.043229993638122</v>
       </c>
       <c r="L13">
-        <v>0.8704198504393642</v>
+        <v>1.03325390357013</v>
       </c>
       <c r="M13">
-        <v>0.8531316823927454</v>
+        <v>1.049399661718104</v>
       </c>
       <c r="N13">
-        <v>0.9499571672051625</v>
+        <v>1.01522316323238</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8276799652396223</v>
+        <v>1.03070067405705</v>
       </c>
       <c r="D14">
-        <v>0.8441721055014004</v>
+        <v>1.040107835157795</v>
       </c>
       <c r="E14">
-        <v>0.8562984503546883</v>
+        <v>1.030039353609649</v>
       </c>
       <c r="F14">
-        <v>0.8393558790782961</v>
+        <v>1.046329113781361</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353277</v>
       </c>
       <c r="J14">
-        <v>0.8665632778369029</v>
+        <v>1.037307151341734</v>
       </c>
       <c r="K14">
-        <v>0.8628046487920044</v>
+        <v>1.043663480760194</v>
       </c>
       <c r="L14">
-        <v>0.8745773637395857</v>
+        <v>1.033632441392224</v>
       </c>
       <c r="M14">
-        <v>0.8581327799961618</v>
+        <v>1.049862022024542</v>
       </c>
       <c r="N14">
-        <v>0.9516169949683434</v>
+        <v>1.015371488560735</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8308429601038122</v>
+        <v>1.030990052053565</v>
       </c>
       <c r="D15">
-        <v>0.8472055504688519</v>
+        <v>1.040395101877316</v>
       </c>
       <c r="E15">
-        <v>0.8589755160544305</v>
+        <v>1.030292894265003</v>
       </c>
       <c r="F15">
-        <v>0.8425608132442591</v>
+        <v>1.04663408472021</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.8692412962353234</v>
+        <v>1.037557382670714</v>
       </c>
       <c r="K15">
-        <v>0.8656340386968541</v>
+        <v>1.043930286279884</v>
       </c>
       <c r="L15">
-        <v>0.8770663581352138</v>
+        <v>1.033865406144137</v>
       </c>
       <c r="M15">
-        <v>0.8611261152444039</v>
+        <v>1.050146613745547</v>
       </c>
       <c r="N15">
-        <v>0.9526115444975194</v>
+        <v>1.015462741658496</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8480298741043998</v>
+        <v>1.032670027291302</v>
       </c>
       <c r="D16">
-        <v>0.8637076973059983</v>
+        <v>1.042062944286947</v>
       </c>
       <c r="E16">
-        <v>0.8735524357669447</v>
+        <v>1.0317646908681</v>
       </c>
       <c r="F16">
-        <v>0.8599915495197743</v>
+        <v>1.048404909474329</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.8838048824507957</v>
+        <v>1.039009668907735</v>
       </c>
       <c r="K16">
-        <v>0.8810215239616991</v>
+        <v>1.045478987321475</v>
       </c>
       <c r="L16">
-        <v>0.8906086653563295</v>
+        <v>1.035217366315297</v>
       </c>
       <c r="M16">
-        <v>0.8774046983570002</v>
+        <v>1.051798787559396</v>
       </c>
       <c r="N16">
-        <v>0.9580332069429045</v>
+        <v>1.015991831371257</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8579141914326411</v>
+        <v>1.033720082961782</v>
       </c>
       <c r="D17">
-        <v>0.8732123726289152</v>
+        <v>1.043105524765031</v>
       </c>
       <c r="E17">
-        <v>0.8819577477199834</v>
+        <v>1.0326845134386</v>
       </c>
       <c r="F17">
-        <v>0.8700282485859161</v>
+        <v>1.049512035391184</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.8921884324471366</v>
+        <v>1.039917035496744</v>
       </c>
       <c r="K17">
-        <v>0.8898801994881719</v>
+        <v>1.046446787790026</v>
       </c>
       <c r="L17">
-        <v>0.8984090338804043</v>
+        <v>1.036061949156615</v>
       </c>
       <c r="M17">
-        <v>0.8867763770204562</v>
+        <v>1.052831452570965</v>
       </c>
       <c r="N17">
-        <v>0.9611633615419035</v>
+        <v>1.016321936643824</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8634122227771017</v>
+        <v>1.034331237235226</v>
       </c>
       <c r="D18">
-        <v>0.8785035547734031</v>
+        <v>1.043712367005878</v>
       </c>
       <c r="E18">
-        <v>0.8866396437364554</v>
+        <v>1.033219828073061</v>
       </c>
       <c r="F18">
-        <v>0.8756148848764119</v>
+        <v>1.050156508315902</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601775</v>
       </c>
       <c r="J18">
-        <v>0.8968537786236591</v>
+        <v>1.040445006863655</v>
       </c>
       <c r="K18">
-        <v>0.8948103229653944</v>
+        <v>1.047009994367402</v>
       </c>
       <c r="L18">
-        <v>0.902751206793724</v>
+        <v>1.036553351603943</v>
       </c>
       <c r="M18">
-        <v>0.8919921341988735</v>
+        <v>1.053432480014797</v>
       </c>
       <c r="N18">
-        <v>0.9629078423574479</v>
+        <v>1.016513848429056</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8652457588597577</v>
+        <v>1.034539402610253</v>
       </c>
       <c r="D19">
-        <v>0.8802687834940595</v>
+        <v>1.043919070187845</v>
       </c>
       <c r="E19">
-        <v>0.8882020129927295</v>
+        <v>1.033402154631214</v>
       </c>
       <c r="F19">
-        <v>0.8774785820916394</v>
+        <v>1.050376039737976</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044801</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.8984099218226779</v>
+        <v>1.040624816393087</v>
       </c>
       <c r="K19">
-        <v>0.8964548527994275</v>
+        <v>1.047201815788179</v>
       </c>
       <c r="L19">
-        <v>0.9041997594955706</v>
+        <v>1.036720700708765</v>
       </c>
       <c r="M19">
-        <v>0.8937319747953307</v>
+        <v>1.053637195203281</v>
       </c>
       <c r="N19">
-        <v>0.9634901039370487</v>
+        <v>1.016579178761367</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.856882400753612</v>
+        <v>1.033607559590002</v>
       </c>
       <c r="D20">
-        <v>0.8722197414907092</v>
+        <v>1.042993798418151</v>
       </c>
       <c r="E20">
-        <v>0.8810796298686546</v>
+        <v>1.032585950028397</v>
       </c>
       <c r="F20">
-        <v>0.8689801363324045</v>
+        <v>1.049393385779098</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.8913130663084667</v>
+        <v>1.039819816565332</v>
       </c>
       <c r="K20">
-        <v>0.8889551851075702</v>
+        <v>1.046343086438366</v>
       </c>
       <c r="L20">
-        <v>0.897594410734275</v>
+        <v>1.035971460935525</v>
       </c>
       <c r="M20">
-        <v>0.885797784090068</v>
+        <v>1.052720793296082</v>
       </c>
       <c r="N20">
-        <v>0.9608362409444949</v>
+        <v>1.016286585128486</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8261434535691945</v>
+        <v>1.0305622911383</v>
       </c>
       <c r="D21">
-        <v>0.8426989324459934</v>
+        <v>1.039970464078725</v>
       </c>
       <c r="E21">
-        <v>0.8549986452693726</v>
+        <v>1.029918106193659</v>
       </c>
       <c r="F21">
-        <v>0.8377993245278805</v>
+        <v>1.046183279955623</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.8652626258061993</v>
+        <v>1.037187481177586</v>
       </c>
       <c r="K21">
-        <v>0.8614304880918224</v>
+        <v>1.043535888114371</v>
       </c>
       <c r="L21">
-        <v>0.8733686614479468</v>
+        <v>1.033521026740185</v>
       </c>
       <c r="M21">
-        <v>0.8566789775111017</v>
+        <v>1.049725927686525</v>
       </c>
       <c r="N21">
-        <v>0.9511342516081742</v>
+        <v>1.015327838624565</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8028275135941034</v>
+        <v>1.028635119882757</v>
       </c>
       <c r="D22">
-        <v>0.8203778837866146</v>
+        <v>1.038057531862724</v>
       </c>
       <c r="E22">
-        <v>0.8353297159900064</v>
+        <v>1.028229425464243</v>
       </c>
       <c r="F22">
-        <v>0.8142059764286145</v>
+        <v>1.04415272847382</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.8455497180635504</v>
+        <v>1.035520412689214</v>
       </c>
       <c r="K22">
-        <v>0.8406036371003275</v>
+        <v>1.041758716308536</v>
       </c>
       <c r="L22">
-        <v>0.855061770043254</v>
+        <v>1.031968827991333</v>
       </c>
       <c r="M22">
-        <v>0.8346429140753231</v>
+        <v>1.047830611641984</v>
       </c>
       <c r="N22">
-        <v>0.9438422292641876</v>
+        <v>1.0147191610485</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8156837329872526</v>
+        <v>1.029657960769316</v>
       </c>
       <c r="D23">
-        <v>0.832677576816398</v>
+        <v>1.039072781158898</v>
       </c>
       <c r="E23">
-        <v>0.8461619512412528</v>
+        <v>1.029125721426758</v>
       </c>
       <c r="F23">
-        <v>0.8272089262752115</v>
+        <v>1.045230349335695</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.8564134589403367</v>
+        <v>1.036405319775497</v>
       </c>
       <c r="K23">
-        <v>0.8520812851637576</v>
+        <v>1.042702007709648</v>
       </c>
       <c r="L23">
-        <v>0.8651476989181991</v>
+        <v>1.032792791232974</v>
       </c>
       <c r="M23">
-        <v>0.8467875303482005</v>
+        <v>1.04883654919575</v>
       </c>
       <c r="N23">
-        <v>0.9478550016125507</v>
+        <v>1.015042397980009</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.857349435676537</v>
+        <v>1.033658408149572</v>
       </c>
       <c r="D24">
-        <v>0.8726690376042331</v>
+        <v>1.043044286687922</v>
       </c>
       <c r="E24">
-        <v>0.8814770852533448</v>
+        <v>1.032630490302435</v>
       </c>
       <c r="F24">
-        <v>0.8694545471439948</v>
+        <v>1.049447002428487</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.8917092900049749</v>
+        <v>1.039863749567876</v>
       </c>
       <c r="K24">
-        <v>0.8893738802689078</v>
+        <v>1.04638994861327</v>
       </c>
       <c r="L24">
-        <v>0.8979631356570112</v>
+        <v>1.036012352460081</v>
       </c>
       <c r="M24">
-        <v>0.8862407304053621</v>
+        <v>1.052770799498561</v>
       </c>
       <c r="N24">
-        <v>0.9609843000692218</v>
+        <v>1.016302560911394</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8951456139110276</v>
+        <v>1.03824897671035</v>
       </c>
       <c r="D25">
-        <v>0.9091006664296269</v>
+        <v>1.047603150431547</v>
       </c>
       <c r="E25">
-        <v>0.9137457692448486</v>
+        <v>1.036650642989912</v>
       </c>
       <c r="F25">
-        <v>0.9079139287117374</v>
+        <v>1.054289671377581</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.923801952170709</v>
+        <v>1.043827077826951</v>
       </c>
       <c r="K25">
-        <v>0.9232955613197545</v>
+        <v>1.050619041999529</v>
       </c>
       <c r="L25">
-        <v>0.9278489672747033</v>
+        <v>1.039700501341906</v>
       </c>
       <c r="M25">
-        <v>0.9221324483277539</v>
+        <v>1.057285204556185</v>
       </c>
       <c r="N25">
-        <v>0.9730135653537157</v>
+        <v>1.017740160577004</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_135/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_135/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04187148740654</v>
+        <v>0.9204505550534059</v>
       </c>
       <c r="D2">
-        <v>1.051201815403074</v>
+        <v>0.9335661079182772</v>
       </c>
       <c r="E2">
-        <v>1.039821650265975</v>
+        <v>0.9354497081613486</v>
       </c>
       <c r="F2">
-        <v>1.058114308825262</v>
+        <v>0.9337380927167471</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02359499962809</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.046950360256459</v>
+        <v>0.9453020453964291</v>
       </c>
       <c r="K2">
-        <v>1.053953972737855</v>
+        <v>0.9460357134635359</v>
       </c>
       <c r="L2">
-        <v>1.042605748426806</v>
+        <v>0.9478881267361432</v>
       </c>
       <c r="M2">
-        <v>1.06084742817026</v>
+        <v>0.946204843970723</v>
       </c>
       <c r="N2">
-        <v>1.018867705991366</v>
+        <v>0.9810989348345069</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044480530114546</v>
+        <v>0.9369196253462249</v>
       </c>
       <c r="D3">
-        <v>1.053794344556942</v>
+        <v>0.9495188695899121</v>
       </c>
       <c r="E3">
-        <v>1.042104672355415</v>
+        <v>0.9496103810823613</v>
       </c>
       <c r="F3">
-        <v>1.060870762483992</v>
+        <v>0.9505793546024446</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208684</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.049197364533617</v>
+        <v>0.9592912387672003</v>
       </c>
       <c r="K3">
-        <v>1.056354528623648</v>
+        <v>0.9608411855176022</v>
       </c>
       <c r="L3">
-        <v>1.044695193457337</v>
+        <v>0.960931363124506</v>
       </c>
       <c r="M3">
-        <v>1.063412932042585</v>
+        <v>0.9618862327186357</v>
       </c>
       <c r="N3">
-        <v>1.019675759831763</v>
+        <v>0.9863620480397721</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046159367466952</v>
+        <v>0.946881603216736</v>
       </c>
       <c r="D4">
-        <v>1.055462855549148</v>
+        <v>0.9591797143153293</v>
       </c>
       <c r="E4">
-        <v>1.043573327982253</v>
+        <v>0.9581875554457578</v>
       </c>
       <c r="F4">
-        <v>1.062645297380346</v>
+        <v>0.9607803103989421</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.050642091253776</v>
+        <v>0.9677491119372328</v>
       </c>
       <c r="K4">
-        <v>1.05789857700645</v>
+        <v>0.9697971189084267</v>
       </c>
       <c r="L4">
-        <v>1.046038290180849</v>
+        <v>0.9688182654966558</v>
       </c>
       <c r="M4">
-        <v>1.065063695222776</v>
+        <v>0.971376322757234</v>
       </c>
       <c r="N4">
-        <v>1.020193834311687</v>
+        <v>0.9895422491058081</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046862965162818</v>
+        <v>0.9509244106731561</v>
       </c>
       <c r="D5">
-        <v>1.056162196342181</v>
+        <v>0.9631026882190845</v>
       </c>
       <c r="E5">
-        <v>1.044188741922257</v>
+        <v>0.9616705989748794</v>
       </c>
       <c r="F5">
-        <v>1.063389202993886</v>
+        <v>0.9649231955428296</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628352</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.051247297617153</v>
+        <v>0.971180271848293</v>
       </c>
       <c r="K5">
-        <v>1.058545532444821</v>
+        <v>0.973431441335025</v>
       </c>
       <c r="L5">
-        <v>1.046600844292042</v>
+        <v>0.9720178895995838</v>
       </c>
       <c r="M5">
-        <v>1.065755512594656</v>
+        <v>0.9752284826548806</v>
       </c>
       <c r="N5">
-        <v>1.020410505283552</v>
+        <v>0.9908315755062052</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046980975933702</v>
+        <v>0.9515952304570598</v>
       </c>
       <c r="D6">
-        <v>1.056279497256249</v>
+        <v>0.9637537560491232</v>
       </c>
       <c r="E6">
-        <v>1.044291956351954</v>
+        <v>0.9622486546381563</v>
       </c>
       <c r="F6">
-        <v>1.063513986188949</v>
+        <v>0.9656107976045699</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.051348789515656</v>
+        <v>0.97174952110643</v>
       </c>
       <c r="K6">
-        <v>1.058654033945397</v>
+        <v>0.9740344624544014</v>
       </c>
       <c r="L6">
-        <v>1.046695178856999</v>
+        <v>0.9725487277716085</v>
       </c>
       <c r="M6">
-        <v>1.065871546647893</v>
+        <v>0.9758677127034607</v>
       </c>
       <c r="N6">
-        <v>1.020446819728551</v>
+        <v>0.9910454254211858</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0461687774792</v>
+        <v>0.9469361694667807</v>
       </c>
       <c r="D7">
-        <v>1.055472208351387</v>
+        <v>0.9592326540654793</v>
       </c>
       <c r="E7">
-        <v>1.043581558996655</v>
+        <v>0.9582345582840044</v>
       </c>
       <c r="F7">
-        <v>1.062655245685326</v>
+        <v>0.960836215346894</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02344298551034</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.050650186453369</v>
+        <v>0.9677954279974416</v>
       </c>
       <c r="K7">
-        <v>1.057907230077869</v>
+        <v>0.9698461729346937</v>
       </c>
       <c r="L7">
-        <v>1.046045815177342</v>
+        <v>0.96886145592219</v>
       </c>
       <c r="M7">
-        <v>1.065072947741051</v>
+        <v>0.9714283126904731</v>
       </c>
       <c r="N7">
-        <v>1.020196733884585</v>
+        <v>0.9895596569287548</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042755207016752</v>
+        <v>0.9261744677174917</v>
       </c>
       <c r="D8">
-        <v>1.052079878841492</v>
+        <v>0.93910793804785</v>
       </c>
       <c r="E8">
-        <v>1.040595023663328</v>
+        <v>0.9403684479522177</v>
       </c>
       <c r="F8">
-        <v>1.059047782971711</v>
+        <v>0.939588206993895</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.047711691033278</v>
+        <v>0.9501647465333101</v>
       </c>
       <c r="K8">
-        <v>1.054767206369114</v>
+        <v>0.9511811898013656</v>
       </c>
       <c r="L8">
-        <v>1.043313762384146</v>
+        <v>0.9524217070341539</v>
       </c>
       <c r="M8">
-        <v>1.061716412354042</v>
+        <v>0.951653833204229</v>
       </c>
       <c r="N8">
-        <v>1.019141795176683</v>
+        <v>0.9829285757789539</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036665337769893</v>
+        <v>0.8829664379762223</v>
       </c>
       <c r="D9">
-        <v>1.046030263772806</v>
+        <v>0.8973462529589148</v>
       </c>
       <c r="E9">
-        <v>1.035263993507622</v>
+        <v>0.9033265938330483</v>
       </c>
       <c r="F9">
-        <v>1.052618565370167</v>
+        <v>0.895506634322604</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.042460483694758</v>
+        <v>0.9134560506897466</v>
       </c>
       <c r="K9">
-        <v>1.049160464999226</v>
+        <v>0.9123577399318671</v>
       </c>
       <c r="L9">
-        <v>1.038428974103899</v>
+        <v>0.9182104792025018</v>
       </c>
       <c r="M9">
-        <v>1.055727867516465</v>
+        <v>0.9105578279156611</v>
       </c>
       <c r="N9">
-        <v>1.017245289056235</v>
+        <v>0.9691287061623786</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032551179727448</v>
+        <v>0.8468730671047124</v>
       </c>
       <c r="D10">
-        <v>1.041944948051617</v>
+        <v>0.8625959859517561</v>
       </c>
       <c r="E10">
-        <v>1.031660577821856</v>
+        <v>0.8725697433858361</v>
       </c>
       <c r="F10">
-        <v>1.048279616504079</v>
+        <v>0.8588174885948243</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.038906952928114</v>
+        <v>0.8828240654117845</v>
       </c>
       <c r="K10">
-        <v>1.045369439635253</v>
+        <v>0.8799851687862502</v>
       </c>
       <c r="L10">
-        <v>1.035121752625018</v>
+        <v>0.8896962919276727</v>
       </c>
       <c r="M10">
-        <v>1.051681907630736</v>
+        <v>0.8763083376357197</v>
       </c>
       <c r="N10">
-        <v>1.015954440070691</v>
+        <v>0.9576674155184824</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030755928452849</v>
+        <v>0.8282890783724701</v>
       </c>
       <c r="D11">
-        <v>1.040162685939144</v>
+        <v>0.84475618330715</v>
       </c>
       <c r="E11">
-        <v>1.03008776563715</v>
+        <v>0.8568138456012879</v>
       </c>
       <c r="F11">
-        <v>1.046387344262862</v>
+        <v>0.8399729975456069</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.037354932637964</v>
+        <v>0.867078939255973</v>
       </c>
       <c r="K11">
-        <v>1.043714426013898</v>
+        <v>0.8633494552468991</v>
       </c>
       <c r="L11">
-        <v>1.033676926104313</v>
+        <v>0.8750565968457068</v>
       </c>
       <c r="M11">
-        <v>1.049916362575611</v>
+        <v>0.8587091582441796</v>
       </c>
       <c r="N11">
-        <v>1.015388915221136</v>
+        <v>0.951808437416698</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030086940443625</v>
+        <v>0.8207399668178772</v>
       </c>
       <c r="D12">
-        <v>1.039498599960276</v>
+        <v>0.837520325677431</v>
       </c>
       <c r="E12">
-        <v>1.029501605844354</v>
+        <v>0.8504310434964242</v>
       </c>
       <c r="F12">
-        <v>1.045682363410549</v>
+        <v>0.832327072277061</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268118</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.036776372736509</v>
+        <v>0.8606900444454653</v>
       </c>
       <c r="K12">
-        <v>1.043097582477152</v>
+        <v>0.8565995126522395</v>
       </c>
       <c r="L12">
-        <v>1.033138268930366</v>
+        <v>0.8691201108132469</v>
       </c>
       <c r="M12">
-        <v>1.049258437118932</v>
+        <v>0.851567905096834</v>
       </c>
       <c r="N12">
-        <v>1.015177840786768</v>
+        <v>0.9494386404049775</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030230539311419</v>
+        <v>0.8223934844427662</v>
       </c>
       <c r="D13">
-        <v>1.039641143794275</v>
+        <v>0.8391046725061362</v>
       </c>
       <c r="E13">
-        <v>1.02962742833976</v>
+        <v>0.8518281961180353</v>
       </c>
       <c r="F13">
-        <v>1.045833680862914</v>
+        <v>0.834001348003797</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>1.03690057062913</v>
+        <v>0.8620890523164542</v>
       </c>
       <c r="K13">
-        <v>1.043229993638122</v>
+        <v>0.858077573283872</v>
       </c>
       <c r="L13">
-        <v>1.03325390357013</v>
+        <v>0.8704198504393654</v>
       </c>
       <c r="M13">
-        <v>1.049399661718104</v>
+        <v>0.8531316823927464</v>
       </c>
       <c r="N13">
-        <v>1.01522316323238</v>
+        <v>0.9499571672051629</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03070067405705</v>
+        <v>0.8276799652396213</v>
       </c>
       <c r="D14">
-        <v>1.040107835157795</v>
+        <v>0.8441721055013998</v>
       </c>
       <c r="E14">
-        <v>1.030039353609649</v>
+        <v>0.856298450354688</v>
       </c>
       <c r="F14">
-        <v>1.046329113781361</v>
+        <v>0.8393558790782952</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353277</v>
+        <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>1.037307151341734</v>
+        <v>0.8665632778369023</v>
       </c>
       <c r="K14">
-        <v>1.043663480760194</v>
+        <v>0.8628046487920037</v>
       </c>
       <c r="L14">
-        <v>1.033632441392224</v>
+        <v>0.8745773637395854</v>
       </c>
       <c r="M14">
-        <v>1.049862022024542</v>
+        <v>0.8581327799961612</v>
       </c>
       <c r="N14">
-        <v>1.015371488560735</v>
+        <v>0.9516169949683431</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030990052053565</v>
+        <v>0.8308429601038075</v>
       </c>
       <c r="D15">
-        <v>1.040395101877316</v>
+        <v>0.847205550468847</v>
       </c>
       <c r="E15">
-        <v>1.030292894265003</v>
+        <v>0.8589755160544261</v>
       </c>
       <c r="F15">
-        <v>1.04663408472021</v>
+        <v>0.842560813244254</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.037557382670714</v>
+        <v>0.8692412962353189</v>
       </c>
       <c r="K15">
-        <v>1.043930286279884</v>
+        <v>0.8656340386968491</v>
       </c>
       <c r="L15">
-        <v>1.033865406144137</v>
+        <v>0.8770663581352095</v>
       </c>
       <c r="M15">
-        <v>1.050146613745547</v>
+        <v>0.861126115244399</v>
       </c>
       <c r="N15">
-        <v>1.015462741658496</v>
+        <v>0.9526115444975176</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032670027291302</v>
+        <v>0.8480298741043988</v>
       </c>
       <c r="D16">
-        <v>1.042062944286947</v>
+        <v>0.8637076973059969</v>
       </c>
       <c r="E16">
-        <v>1.0317646908681</v>
+        <v>0.873552435766944</v>
       </c>
       <c r="F16">
-        <v>1.048404909474329</v>
+        <v>0.8599915495197726</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177636</v>
       </c>
       <c r="J16">
-        <v>1.039009668907735</v>
+        <v>0.8838048824507947</v>
       </c>
       <c r="K16">
-        <v>1.045478987321475</v>
+        <v>0.8810215239616978</v>
       </c>
       <c r="L16">
-        <v>1.035217366315297</v>
+        <v>0.8906086653563287</v>
       </c>
       <c r="M16">
-        <v>1.051798787559396</v>
+        <v>0.8774046983569989</v>
       </c>
       <c r="N16">
-        <v>1.015991831371257</v>
+        <v>0.9580332069429039</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033720082961782</v>
+        <v>0.8579141914326412</v>
       </c>
       <c r="D17">
-        <v>1.043105524765031</v>
+        <v>0.873212372628915</v>
       </c>
       <c r="E17">
-        <v>1.0326845134386</v>
+        <v>0.8819577477199837</v>
       </c>
       <c r="F17">
-        <v>1.049512035391184</v>
+        <v>0.8700282485859163</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.039917035496744</v>
+        <v>0.8921884324471365</v>
       </c>
       <c r="K17">
-        <v>1.046446787790026</v>
+        <v>0.8898801994881718</v>
       </c>
       <c r="L17">
-        <v>1.036061949156615</v>
+        <v>0.8984090338804045</v>
       </c>
       <c r="M17">
-        <v>1.052831452570965</v>
+        <v>0.8867763770204563</v>
       </c>
       <c r="N17">
-        <v>1.016321936643824</v>
+        <v>0.9611633615419037</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034331237235226</v>
+        <v>0.8634122227771017</v>
       </c>
       <c r="D18">
-        <v>1.043712367005878</v>
+        <v>0.8785035547734033</v>
       </c>
       <c r="E18">
-        <v>1.033219828073061</v>
+        <v>0.8866396437364555</v>
       </c>
       <c r="F18">
-        <v>1.050156508315902</v>
+        <v>0.8756148848764118</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601775</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.040445006863655</v>
+        <v>0.8968537786236591</v>
       </c>
       <c r="K18">
-        <v>1.047009994367402</v>
+        <v>0.8948103229653944</v>
       </c>
       <c r="L18">
-        <v>1.036553351603943</v>
+        <v>0.902751206793724</v>
       </c>
       <c r="M18">
-        <v>1.053432480014797</v>
+        <v>0.8919921341988732</v>
       </c>
       <c r="N18">
-        <v>1.016513848429056</v>
+        <v>0.962907842357448</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034539402610253</v>
+        <v>0.8652457588597611</v>
       </c>
       <c r="D19">
-        <v>1.043919070187845</v>
+        <v>0.880268783494063</v>
       </c>
       <c r="E19">
-        <v>1.033402154631214</v>
+        <v>0.8882020129927326</v>
       </c>
       <c r="F19">
-        <v>1.050376039737976</v>
+        <v>0.8774785820916433</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.040624816393087</v>
+        <v>0.8984099218226809</v>
       </c>
       <c r="K19">
-        <v>1.047201815788179</v>
+        <v>0.896454852799431</v>
       </c>
       <c r="L19">
-        <v>1.036720700708765</v>
+        <v>0.9041997594955735</v>
       </c>
       <c r="M19">
-        <v>1.053637195203281</v>
+        <v>0.8937319747953344</v>
       </c>
       <c r="N19">
-        <v>1.016579178761367</v>
+        <v>0.9634901039370497</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033607559590002</v>
+        <v>0.85688240075361</v>
       </c>
       <c r="D20">
-        <v>1.042993798418151</v>
+        <v>0.8722197414907072</v>
       </c>
       <c r="E20">
-        <v>1.032585950028397</v>
+        <v>0.881079629868653</v>
       </c>
       <c r="F20">
-        <v>1.049393385779098</v>
+        <v>0.8689801363324023</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.039819816565332</v>
+        <v>0.891313066308465</v>
       </c>
       <c r="K20">
-        <v>1.046343086438366</v>
+        <v>0.888955185107568</v>
       </c>
       <c r="L20">
-        <v>1.035971460935525</v>
+        <v>0.8975944107342735</v>
       </c>
       <c r="M20">
-        <v>1.052720793296082</v>
+        <v>0.8857977840900659</v>
       </c>
       <c r="N20">
-        <v>1.016286585128486</v>
+        <v>0.9608362409444944</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.0305622911383</v>
+        <v>0.8261434535691955</v>
       </c>
       <c r="D21">
-        <v>1.039970464078725</v>
+        <v>0.8426989324459941</v>
       </c>
       <c r="E21">
-        <v>1.029918106193659</v>
+        <v>0.8549986452693737</v>
       </c>
       <c r="F21">
-        <v>1.046183279955623</v>
+        <v>0.8377993245278813</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.037187481177586</v>
+        <v>0.8652626258062005</v>
       </c>
       <c r="K21">
-        <v>1.043535888114371</v>
+        <v>0.8614304880918233</v>
       </c>
       <c r="L21">
-        <v>1.033521026740185</v>
+        <v>0.8733686614479479</v>
       </c>
       <c r="M21">
-        <v>1.049725927686525</v>
+        <v>0.8566789775111026</v>
       </c>
       <c r="N21">
-        <v>1.015327838624565</v>
+        <v>0.9511342516081748</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028635119882757</v>
+        <v>0.8028275135941073</v>
       </c>
       <c r="D22">
-        <v>1.038057531862724</v>
+        <v>0.8203778837866186</v>
       </c>
       <c r="E22">
-        <v>1.028229425464243</v>
+        <v>0.8353297159900096</v>
       </c>
       <c r="F22">
-        <v>1.04415272847382</v>
+        <v>0.8142059764286184</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544657</v>
       </c>
       <c r="J22">
-        <v>1.035520412689214</v>
+        <v>0.8455497180635539</v>
       </c>
       <c r="K22">
-        <v>1.041758716308536</v>
+        <v>0.8406036371003313</v>
       </c>
       <c r="L22">
-        <v>1.031968827991333</v>
+        <v>0.8550617700432573</v>
       </c>
       <c r="M22">
-        <v>1.047830611641984</v>
+        <v>0.834642914075327</v>
       </c>
       <c r="N22">
-        <v>1.0147191610485</v>
+        <v>0.9438422292641888</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029657960769316</v>
+        <v>0.8156837329872544</v>
       </c>
       <c r="D23">
-        <v>1.039072781158898</v>
+        <v>0.8326775768164002</v>
       </c>
       <c r="E23">
-        <v>1.029125721426758</v>
+        <v>0.8461619512412546</v>
       </c>
       <c r="F23">
-        <v>1.045230349335695</v>
+        <v>0.8272089262752141</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290666</v>
       </c>
       <c r="J23">
-        <v>1.036405319775497</v>
+        <v>0.8564134589403387</v>
       </c>
       <c r="K23">
-        <v>1.042702007709648</v>
+        <v>0.8520812851637596</v>
       </c>
       <c r="L23">
-        <v>1.032792791232974</v>
+        <v>0.8651476989182008</v>
       </c>
       <c r="M23">
-        <v>1.04883654919575</v>
+        <v>0.8467875303482028</v>
       </c>
       <c r="N23">
-        <v>1.015042397980009</v>
+        <v>0.9478550016125512</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033658408149572</v>
+        <v>0.8573494356765343</v>
       </c>
       <c r="D24">
-        <v>1.043044286687922</v>
+        <v>0.8726690376042305</v>
       </c>
       <c r="E24">
-        <v>1.032630490302435</v>
+        <v>0.8814770852533425</v>
       </c>
       <c r="F24">
-        <v>1.049447002428487</v>
+        <v>0.869454547143992</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.039863749567876</v>
+        <v>0.8917092900049723</v>
       </c>
       <c r="K24">
-        <v>1.04638994861327</v>
+        <v>0.8893738802689053</v>
       </c>
       <c r="L24">
-        <v>1.036012352460081</v>
+        <v>0.8979631356570087</v>
       </c>
       <c r="M24">
-        <v>1.052770799498561</v>
+        <v>0.8862407304053592</v>
       </c>
       <c r="N24">
-        <v>1.016302560911394</v>
+        <v>0.960984300069221</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03824897671035</v>
+        <v>0.8951456139110285</v>
       </c>
       <c r="D25">
-        <v>1.047603150431547</v>
+        <v>0.9091006664296282</v>
       </c>
       <c r="E25">
-        <v>1.036650642989912</v>
+        <v>0.9137457692448493</v>
       </c>
       <c r="F25">
-        <v>1.054289671377581</v>
+        <v>0.9079139287117386</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.043827077826951</v>
+        <v>0.92380195217071</v>
       </c>
       <c r="K25">
-        <v>1.050619041999529</v>
+        <v>0.9232955613197555</v>
       </c>
       <c r="L25">
-        <v>1.039700501341906</v>
+        <v>0.9278489672747038</v>
       </c>
       <c r="M25">
-        <v>1.057285204556185</v>
+        <v>0.922132448327755</v>
       </c>
       <c r="N25">
-        <v>1.017740160577004</v>
+        <v>0.9730135653537163</v>
       </c>
     </row>
   </sheetData>
